--- a/outputs-r202/test-p__Fibrobacterota.xlsx
+++ b/outputs-r202/test-p__Fibrobacterota.xlsx
@@ -14,27 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>RUG081.fasta</t>
+  </si>
+  <si>
+    <t>RUG129.fasta</t>
+  </si>
+  <si>
+    <t>RUG130.fasta</t>
+  </si>
+  <si>
+    <t>RUG163.fasta</t>
+  </si>
+  <si>
     <t>RUG181.fasta</t>
   </si>
   <si>
     <t>RUG229.fasta</t>
   </si>
   <si>
+    <t>RUG243.fasta</t>
+  </si>
+  <si>
     <t>RUG438.fasta</t>
   </si>
   <si>
+    <t>RUG441.fasta</t>
+  </si>
+  <si>
     <t>RUG480.fasta</t>
   </si>
   <si>
+    <t>RUG486.fasta</t>
+  </si>
+  <si>
     <t>RUG520.fasta</t>
   </si>
   <si>
+    <t>RUG540.fasta</t>
+  </si>
+  <si>
+    <t>RUG560.fasta</t>
+  </si>
+  <si>
     <t>RUG690.fasta</t>
+  </si>
+  <si>
+    <t>RUG702.fasta</t>
+  </si>
+  <si>
+    <t>RUG714.fasta</t>
+  </si>
+  <si>
+    <t>RUG723.fasta</t>
+  </si>
+  <si>
+    <t>RUG741.fasta</t>
+  </si>
+  <si>
+    <t>RUG752.fasta</t>
+  </si>
+  <si>
+    <t>RUG775.fasta</t>
   </si>
   <si>
     <t>RUG831.fasta</t>
@@ -97,7 +142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -112,16 +157,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -129,16 +174,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -146,13 +191,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.22067177711888372</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.77932822288108938</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.6844922118908528e-14</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -163,13 +208,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.22067177711888372</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.77932822288108938</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.6844922118908528e-14</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -180,16 +225,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -197,16 +242,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -231,15 +276,270 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.088890756572771637</v>
+      </c>
+      <c r="C12">
+        <v>0.82221848685445664</v>
+      </c>
+      <c r="D12">
+        <v>0.088890756572771637</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.088890756572771637</v>
+      </c>
+      <c r="C14">
+        <v>0.82221848685445664</v>
+      </c>
+      <c r="D14">
+        <v>0.088890756572771637</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.22067177711888372</v>
+      </c>
+      <c r="C15">
+        <v>0.77932822288108938</v>
+      </c>
+      <c r="D15">
+        <v>2.6844922118908528e-14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.22067177711888372</v>
+      </c>
+      <c r="C17">
+        <v>0.77932822288108938</v>
+      </c>
+      <c r="D17">
+        <v>2.6844922118908528e-14</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.22067177711888372</v>
+      </c>
+      <c r="C18">
+        <v>0.77932822288108938</v>
+      </c>
+      <c r="D18">
+        <v>2.6844922118908528e-14</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="C20">
+        <v>0.27309355689751363</v>
+      </c>
+      <c r="D20">
+        <v>0.27309355689751352</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.22067177711888372</v>
+      </c>
+      <c r="C21">
+        <v>0.77932822288108938</v>
+      </c>
+      <c r="D21">
+        <v>2.6844922118908528e-14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="C22">
+        <v>0.27309355689751363</v>
+      </c>
+      <c r="D22">
+        <v>0.27309355689751352</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
     </row>
